--- a/Output/elemental_binary.xlsx
+++ b/Output/elemental_binary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1194"/>
+  <dimension ref="A1:L1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46820,17 +46820,17 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>1824579</t>
+          <t>251994</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>GdSbSix</t>
+          <t>YSb</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="D1009" t="n">
@@ -46844,17 +46844,11 @@
       <c r="F1009" t="n">
         <v>1</v>
       </c>
-      <c r="G1009" t="inlineStr">
-        <is>
-          <t>Six</t>
-        </is>
-      </c>
-      <c r="H1009" t="n">
-        <v>1</v>
-      </c>
+      <c r="G1009" t="inlineStr"/>
+      <c r="H1009" t="inlineStr"/>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>['Gd', 'Sb']</t>
+          <t>['Y', 'Sb']</t>
         </is>
       </c>
       <c r="J1009" t="inlineStr">
@@ -46862,11 +46856,7 @@
           <t>[1, 1]</t>
         </is>
       </c>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>'Six' is not a valid element</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="inlineStr">
         <is>
           <t>Binary</t>
@@ -46876,17 +46866,17 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>251994</t>
+          <t>251943</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>YSb</t>
+          <t>DySb</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="D1010" t="n">
@@ -46904,7 +46894,7 @@
       <c r="H1010" t="inlineStr"/>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>['Y', 'Sb']</t>
+          <t>['Dy', 'Sb']</t>
         </is>
       </c>
       <c r="J1010" t="inlineStr">
@@ -46922,17 +46912,17 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>251943</t>
+          <t>456330</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>DySb</t>
+          <t>TbSb</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="D1011" t="n">
@@ -46950,7 +46940,7 @@
       <c r="H1011" t="inlineStr"/>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>['Dy', 'Sb']</t>
+          <t>['Tb', 'Sb']</t>
         </is>
       </c>
       <c r="J1011" t="inlineStr">
@@ -46968,17 +46958,17 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>456330</t>
+          <t>525408</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>TbSb</t>
+          <t>CeSb</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="D1012" t="n">
@@ -46996,7 +46986,7 @@
       <c r="H1012" t="inlineStr"/>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>['Tb', 'Sb']</t>
+          <t>['Ce', 'Sb']</t>
         </is>
       </c>
       <c r="J1012" t="inlineStr">
@@ -47014,7 +47004,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>525408</t>
+          <t>555689</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
@@ -47060,17 +47050,17 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>555689</t>
+          <t>1229763</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>CeSb</t>
+          <t>GdSb</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="D1014" t="n">
@@ -47088,7 +47078,7 @@
       <c r="H1014" t="inlineStr"/>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>['Ce', 'Sb']</t>
+          <t>['Gd', 'Sb']</t>
         </is>
       </c>
       <c r="J1014" t="inlineStr">
@@ -47106,17 +47096,17 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>1229763</t>
+          <t>525420</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>GdSb</t>
+          <t>LaSb</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>La</t>
         </is>
       </c>
       <c r="D1015" t="n">
@@ -47134,7 +47124,7 @@
       <c r="H1015" t="inlineStr"/>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>['Gd', 'Sb']</t>
+          <t>['La', 'Sb']</t>
         </is>
       </c>
       <c r="J1015" t="inlineStr">
@@ -47152,17 +47142,17 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>525420</t>
+          <t>1817936</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>LaSb</t>
+          <t>NdSb</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Nd</t>
         </is>
       </c>
       <c r="D1016" t="n">
@@ -47180,7 +47170,7 @@
       <c r="H1016" t="inlineStr"/>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>['La', 'Sb']</t>
+          <t>['Nd', 'Sb']</t>
         </is>
       </c>
       <c r="J1016" t="inlineStr">
@@ -47198,17 +47188,17 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>1817936</t>
+          <t>457840</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>NdSb</t>
+          <t>ScSb</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>Sc</t>
         </is>
       </c>
       <c r="D1017" t="n">
@@ -47226,7 +47216,7 @@
       <c r="H1017" t="inlineStr"/>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>['Nd', 'Sb']</t>
+          <t>['Sc', 'Sb']</t>
         </is>
       </c>
       <c r="J1017" t="inlineStr">
@@ -47244,17 +47234,17 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>457840</t>
+          <t>454385</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>ScSb</t>
+          <t>SmSb</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
         <is>
-          <t>Sc</t>
+          <t>Sm</t>
         </is>
       </c>
       <c r="D1018" t="n">
@@ -47272,7 +47262,7 @@
       <c r="H1018" t="inlineStr"/>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>['Sc', 'Sb']</t>
+          <t>['Sm', 'Sb']</t>
         </is>
       </c>
       <c r="J1018" t="inlineStr">
@@ -47290,17 +47280,17 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>454385</t>
+          <t>260247</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>SmSb</t>
+          <t>HoSb</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
         <is>
-          <t>Sm</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="D1019" t="n">
@@ -47318,7 +47308,7 @@
       <c r="H1019" t="inlineStr"/>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>['Sm', 'Sb']</t>
+          <t>['Ho', 'Sb']</t>
         </is>
       </c>
       <c r="J1019" t="inlineStr">
@@ -47336,17 +47326,17 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>260247</t>
+          <t>450120</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>HoSb</t>
+          <t>TbSb</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="D1020" t="n">
@@ -47364,7 +47354,7 @@
       <c r="H1020" t="inlineStr"/>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>['Ho', 'Sb']</t>
+          <t>['Tb', 'Sb']</t>
         </is>
       </c>
       <c r="J1020" t="inlineStr">
@@ -47382,17 +47372,17 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>450120</t>
+          <t>1816778</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>TbSb</t>
+          <t>CeSb</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="D1021" t="n">
@@ -47410,7 +47400,7 @@
       <c r="H1021" t="inlineStr"/>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>['Tb', 'Sb']</t>
+          <t>['Ce', 'Sb']</t>
         </is>
       </c>
       <c r="J1021" t="inlineStr">
@@ -47428,17 +47418,17 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>1816778</t>
+          <t>1963898</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>CeSb</t>
+          <t>GdSb</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="D1022" t="n">
@@ -47456,7 +47446,7 @@
       <c r="H1022" t="inlineStr"/>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>['Ce', 'Sb']</t>
+          <t>['Gd', 'Sb']</t>
         </is>
       </c>
       <c r="J1022" t="inlineStr">
@@ -47474,17 +47464,17 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>1963898</t>
+          <t>558582</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>GdSb</t>
+          <t>HoSb</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="D1023" t="n">
@@ -47502,7 +47492,7 @@
       <c r="H1023" t="inlineStr"/>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>['Gd', 'Sb']</t>
+          <t>['Ho', 'Sb']</t>
         </is>
       </c>
       <c r="J1023" t="inlineStr">
@@ -47520,17 +47510,17 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>558582</t>
+          <t>525421</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>HoSb</t>
+          <t>PrSb</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Pr</t>
         </is>
       </c>
       <c r="D1024" t="n">
@@ -47548,7 +47538,7 @@
       <c r="H1024" t="inlineStr"/>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>['Ho', 'Sb']</t>
+          <t>['Pr', 'Sb']</t>
         </is>
       </c>
       <c r="J1024" t="inlineStr">
@@ -47566,17 +47556,17 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>525421</t>
+          <t>525409</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>PrSb</t>
+          <t>YSb</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
         <is>
-          <t>Pr</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="D1025" t="n">
@@ -47594,7 +47584,7 @@
       <c r="H1025" t="inlineStr"/>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>['Pr', 'Sb']</t>
+          <t>['Y', 'Sb']</t>
         </is>
       </c>
       <c r="J1025" t="inlineStr">
@@ -47612,17 +47602,17 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>525409</t>
+          <t>1957877</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>YSb</t>
+          <t>HoSb</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="D1026" t="n">
@@ -47640,7 +47630,7 @@
       <c r="H1026" t="inlineStr"/>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>['Y', 'Sb']</t>
+          <t>['Ho', 'Sb']</t>
         </is>
       </c>
       <c r="J1026" t="inlineStr">
@@ -47658,17 +47648,17 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>1957877</t>
+          <t>1943431</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>HoSb</t>
+          <t>DySb</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="D1027" t="n">
@@ -47686,7 +47676,7 @@
       <c r="H1027" t="inlineStr"/>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>['Ho', 'Sb']</t>
+          <t>['Dy', 'Sb']</t>
         </is>
       </c>
       <c r="J1027" t="inlineStr">
@@ -47704,17 +47694,17 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>1943431</t>
+          <t>525423</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>DySb</t>
+          <t>YSb</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="D1028" t="n">
@@ -47732,7 +47722,7 @@
       <c r="H1028" t="inlineStr"/>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>['Dy', 'Sb']</t>
+          <t>['Y', 'Sb']</t>
         </is>
       </c>
       <c r="J1028" t="inlineStr">
@@ -47750,17 +47740,17 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>525423</t>
+          <t>251927</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>YSb</t>
+          <t>TbSb</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="D1029" t="n">
@@ -47778,7 +47768,7 @@
       <c r="H1029" t="inlineStr"/>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>['Y', 'Sb']</t>
+          <t>['Tb', 'Sb']</t>
         </is>
       </c>
       <c r="J1029" t="inlineStr">
@@ -47796,17 +47786,17 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>251927</t>
+          <t>1700924</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>TbSb</t>
+          <t>ErSb</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="D1030" t="n">
@@ -47824,7 +47814,7 @@
       <c r="H1030" t="inlineStr"/>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>['Tb', 'Sb']</t>
+          <t>['Er', 'Sb']</t>
         </is>
       </c>
       <c r="J1030" t="inlineStr">
@@ -47842,17 +47832,17 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>1700924</t>
+          <t>1700918</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>ErSb</t>
+          <t>CeSb</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="D1031" t="n">
@@ -47870,7 +47860,7 @@
       <c r="H1031" t="inlineStr"/>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>['Er', 'Sb']</t>
+          <t>['Ce', 'Sb']</t>
         </is>
       </c>
       <c r="J1031" t="inlineStr">
@@ -47888,17 +47878,17 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>1700918</t>
+          <t>1700919</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>CeSb</t>
+          <t>PrSb</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Pr</t>
         </is>
       </c>
       <c r="D1032" t="n">
@@ -47916,7 +47906,7 @@
       <c r="H1032" t="inlineStr"/>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>['Ce', 'Sb']</t>
+          <t>['Pr', 'Sb']</t>
         </is>
       </c>
       <c r="J1032" t="inlineStr">
@@ -47934,17 +47924,17 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>1700919</t>
+          <t>1835439</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>PrSb</t>
+          <t>CeSb</t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
         <is>
-          <t>Pr</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="D1033" t="n">
@@ -47962,7 +47952,7 @@
       <c r="H1033" t="inlineStr"/>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>['Pr', 'Sb']</t>
+          <t>['Ce', 'Sb']</t>
         </is>
       </c>
       <c r="J1033" t="inlineStr">
@@ -47980,17 +47970,17 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>1835439</t>
+          <t>456341</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>CeSb</t>
+          <t>ErSb</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="D1034" t="n">
@@ -48008,7 +47998,7 @@
       <c r="H1034" t="inlineStr"/>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>['Ce', 'Sb']</t>
+          <t>['Er', 'Sb']</t>
         </is>
       </c>
       <c r="J1034" t="inlineStr">
@@ -48026,17 +48016,17 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>456341</t>
+          <t>525422</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>ErSb</t>
+          <t>SmSb</t>
         </is>
       </c>
       <c r="C1035" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Sm</t>
         </is>
       </c>
       <c r="D1035" t="n">
@@ -48054,7 +48044,7 @@
       <c r="H1035" t="inlineStr"/>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>['Er', 'Sb']</t>
+          <t>['Sm', 'Sb']</t>
         </is>
       </c>
       <c r="J1035" t="inlineStr">
@@ -48072,17 +48062,17 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>525422</t>
+          <t>525344</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>SmSb</t>
+          <t>ScSb</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
         <is>
-          <t>Sm</t>
+          <t>Sc</t>
         </is>
       </c>
       <c r="D1036" t="n">
@@ -48100,7 +48090,7 @@
       <c r="H1036" t="inlineStr"/>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>['Sm', 'Sb']</t>
+          <t>['Sc', 'Sb']</t>
         </is>
       </c>
       <c r="J1036" t="inlineStr">
@@ -48118,17 +48108,17 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>525344</t>
+          <t>450240</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>ScSb</t>
+          <t>CeSb</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
         <is>
-          <t>Sc</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="D1037" t="n">
@@ -48146,7 +48136,7 @@
       <c r="H1037" t="inlineStr"/>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>['Sc', 'Sb']</t>
+          <t>['Ce', 'Sb']</t>
         </is>
       </c>
       <c r="J1037" t="inlineStr">
@@ -48164,17 +48154,17 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>450240</t>
+          <t>456631</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>CeSb</t>
+          <t>USb</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>U</t>
         </is>
       </c>
       <c r="D1038" t="n">
@@ -48192,7 +48182,7 @@
       <c r="H1038" t="inlineStr"/>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>['Ce', 'Sb']</t>
+          <t>['U', 'Sb']</t>
         </is>
       </c>
       <c r="J1038" t="inlineStr">
@@ -48210,17 +48200,17 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>456631</t>
+          <t>454754</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>USb</t>
+          <t>CeSb</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="D1039" t="n">
@@ -48238,7 +48228,7 @@
       <c r="H1039" t="inlineStr"/>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>['U', 'Sb']</t>
+          <t>['Ce', 'Sb']</t>
         </is>
       </c>
       <c r="J1039" t="inlineStr">
@@ -48256,17 +48246,17 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>454754</t>
+          <t>454787</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>CeSb</t>
+          <t>ThGe</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Th</t>
         </is>
       </c>
       <c r="D1040" t="n">
@@ -48274,7 +48264,7 @@
       </c>
       <c r="E1040" t="inlineStr">
         <is>
-          <t>Sb</t>
+          <t>Ge</t>
         </is>
       </c>
       <c r="F1040" t="n">
@@ -48284,7 +48274,7 @@
       <c r="H1040" t="inlineStr"/>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>['Ce', 'Sb']</t>
+          <t>['Th', 'Ge']</t>
         </is>
       </c>
       <c r="J1040" t="inlineStr">
@@ -48302,17 +48292,17 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>454787</t>
+          <t>1625169</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>ThGe</t>
+          <t>SmSb</t>
         </is>
       </c>
       <c r="C1041" t="inlineStr">
         <is>
-          <t>Th</t>
+          <t>Sm</t>
         </is>
       </c>
       <c r="D1041" t="n">
@@ -48320,7 +48310,7 @@
       </c>
       <c r="E1041" t="inlineStr">
         <is>
-          <t>Ge</t>
+          <t>Sb</t>
         </is>
       </c>
       <c r="F1041" t="n">
@@ -48330,7 +48320,7 @@
       <c r="H1041" t="inlineStr"/>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>['Th', 'Ge']</t>
+          <t>['Sm', 'Sb']</t>
         </is>
       </c>
       <c r="J1041" t="inlineStr">
@@ -48348,17 +48338,17 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>1625169</t>
+          <t>1611596</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>SmSb</t>
+          <t>USb</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
         <is>
-          <t>Sm</t>
+          <t>U</t>
         </is>
       </c>
       <c r="D1042" t="n">
@@ -48376,7 +48366,7 @@
       <c r="H1042" t="inlineStr"/>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>['Sm', 'Sb']</t>
+          <t>['U', 'Sb']</t>
         </is>
       </c>
       <c r="J1042" t="inlineStr">
@@ -48394,17 +48384,17 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>1611596</t>
+          <t>525340</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>USb</t>
+          <t>DySb</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="D1043" t="n">
@@ -48422,7 +48412,7 @@
       <c r="H1043" t="inlineStr"/>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>['U', 'Sb']</t>
+          <t>['Dy', 'Sb']</t>
         </is>
       </c>
       <c r="J1043" t="inlineStr">
@@ -48440,7 +48430,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>525340</t>
+          <t>525426</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr">
@@ -48486,17 +48476,17 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>525426</t>
+          <t>525432</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>DySb</t>
+          <t>CeSb</t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="D1045" t="n">
@@ -48514,7 +48504,7 @@
       <c r="H1045" t="inlineStr"/>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>['Dy', 'Sb']</t>
+          <t>['Ce', 'Sb']</t>
         </is>
       </c>
       <c r="J1045" t="inlineStr">
@@ -48532,7 +48522,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>525432</t>
+          <t>1731487</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr">
@@ -48578,17 +48568,17 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>1731487</t>
+          <t>261017</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>CeSb</t>
+          <t>YSb</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="D1047" t="n">
@@ -48606,7 +48596,7 @@
       <c r="H1047" t="inlineStr"/>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>['Ce', 'Sb']</t>
+          <t>['Y', 'Sb']</t>
         </is>
       </c>
       <c r="J1047" t="inlineStr">
@@ -48624,7 +48614,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>261017</t>
+          <t>1350503</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr">
@@ -48670,17 +48660,17 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>1350503</t>
+          <t>558585</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>YSb</t>
+          <t>ErSb</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="D1049" t="n">
@@ -48698,7 +48688,7 @@
       <c r="H1049" t="inlineStr"/>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>['Y', 'Sb']</t>
+          <t>['Er', 'Sb']</t>
         </is>
       </c>
       <c r="J1049" t="inlineStr">
@@ -48716,17 +48706,17 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>558585</t>
+          <t>456594</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>ErSb</t>
+          <t>DySb</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="D1050" t="n">
@@ -48744,7 +48734,7 @@
       <c r="H1050" t="inlineStr"/>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>['Er', 'Sb']</t>
+          <t>['Dy', 'Sb']</t>
         </is>
       </c>
       <c r="J1050" t="inlineStr">
@@ -48762,17 +48752,17 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>456594</t>
+          <t>381040</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>DySb</t>
+          <t>TmSb</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Tm</t>
         </is>
       </c>
       <c r="D1051" t="n">
@@ -48790,7 +48780,7 @@
       <c r="H1051" t="inlineStr"/>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>['Dy', 'Sb']</t>
+          <t>['Tm', 'Sb']</t>
         </is>
       </c>
       <c r="J1051" t="inlineStr">
@@ -48808,17 +48798,17 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>381040</t>
+          <t>1700921</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>TmSb</t>
+          <t>TbSb</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
         <is>
-          <t>Tm</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="D1052" t="n">
@@ -48836,7 +48826,7 @@
       <c r="H1052" t="inlineStr"/>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>['Tm', 'Sb']</t>
+          <t>['Tb', 'Sb']</t>
         </is>
       </c>
       <c r="J1052" t="inlineStr">
@@ -48854,17 +48844,17 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>1700921</t>
+          <t>1044848</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>TbSb</t>
+          <t>CeSb</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="D1053" t="n">
@@ -48882,7 +48872,7 @@
       <c r="H1053" t="inlineStr"/>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>['Tb', 'Sb']</t>
+          <t>['Ce', 'Sb']</t>
         </is>
       </c>
       <c r="J1053" t="inlineStr">
@@ -48900,17 +48890,17 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>1044848</t>
+          <t>1700920</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>CeSb</t>
+          <t>NdSb</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Nd</t>
         </is>
       </c>
       <c r="D1054" t="n">
@@ -48928,7 +48918,7 @@
       <c r="H1054" t="inlineStr"/>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>['Ce', 'Sb']</t>
+          <t>['Nd', 'Sb']</t>
         </is>
       </c>
       <c r="J1054" t="inlineStr">
@@ -48946,17 +48936,17 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>1700920</t>
+          <t>1200296</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>NdSb</t>
+          <t>ErSb</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="D1055" t="n">
@@ -48974,7 +48964,7 @@
       <c r="H1055" t="inlineStr"/>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>['Nd', 'Sb']</t>
+          <t>['Er', 'Sb']</t>
         </is>
       </c>
       <c r="J1055" t="inlineStr">
@@ -48992,17 +48982,17 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>1200296</t>
+          <t>1817931</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>ErSb</t>
+          <t>CeSb</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="D1056" t="n">
@@ -49020,7 +49010,7 @@
       <c r="H1056" t="inlineStr"/>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>['Er', 'Sb']</t>
+          <t>['Ce', 'Sb']</t>
         </is>
       </c>
       <c r="J1056" t="inlineStr">
@@ -49038,17 +49028,17 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>1817931</t>
+          <t>261016</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>CeSb</t>
+          <t>LaSb</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>La</t>
         </is>
       </c>
       <c r="D1057" t="n">
@@ -49066,7 +49056,7 @@
       <c r="H1057" t="inlineStr"/>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>['Ce', 'Sb']</t>
+          <t>['La', 'Sb']</t>
         </is>
       </c>
       <c r="J1057" t="inlineStr">
@@ -49084,17 +49074,17 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>261016</t>
+          <t>525433</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>LaSb</t>
+          <t>NdSb</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Nd</t>
         </is>
       </c>
       <c r="D1058" t="n">
@@ -49112,7 +49102,7 @@
       <c r="H1058" t="inlineStr"/>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>['La', 'Sb']</t>
+          <t>['Nd', 'Sb']</t>
         </is>
       </c>
       <c r="J1058" t="inlineStr">
@@ -49130,17 +49120,17 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>525433</t>
+          <t>525341</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>NdSb</t>
+          <t>TbSb</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="D1059" t="n">
@@ -49158,7 +49148,7 @@
       <c r="H1059" t="inlineStr"/>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>['Nd', 'Sb']</t>
+          <t>['Tb', 'Sb']</t>
         </is>
       </c>
       <c r="J1059" t="inlineStr">
@@ -49176,7 +49166,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>525341</t>
+          <t>525427</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr">
@@ -49222,17 +49212,17 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>525427</t>
+          <t>1340249</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>TbSb</t>
+          <t>NdSb</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Nd</t>
         </is>
       </c>
       <c r="D1061" t="n">
@@ -49250,7 +49240,7 @@
       <c r="H1061" t="inlineStr"/>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>['Tb', 'Sb']</t>
+          <t>['Nd', 'Sb']</t>
         </is>
       </c>
       <c r="J1061" t="inlineStr">
@@ -49268,17 +49258,17 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>1340249</t>
+          <t>1625168</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>NdSb</t>
+          <t>GdSb</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="D1062" t="n">
@@ -49296,7 +49286,7 @@
       <c r="H1062" t="inlineStr"/>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>['Nd', 'Sb']</t>
+          <t>['Gd', 'Sb']</t>
         </is>
       </c>
       <c r="J1062" t="inlineStr">
@@ -49314,17 +49304,17 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>1625168</t>
+          <t>529751</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>GdSb</t>
+          <t>USb</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>U</t>
         </is>
       </c>
       <c r="D1063" t="n">
@@ -49342,7 +49332,7 @@
       <c r="H1063" t="inlineStr"/>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>['Gd', 'Sb']</t>
+          <t>['U', 'Sb']</t>
         </is>
       </c>
       <c r="J1063" t="inlineStr">
@@ -49360,17 +49350,17 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>529751</t>
+          <t>1947490</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>USb</t>
+          <t>GdSb</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="D1064" t="n">
@@ -49388,7 +49378,7 @@
       <c r="H1064" t="inlineStr"/>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>['U', 'Sb']</t>
+          <t>['Gd', 'Sb']</t>
         </is>
       </c>
       <c r="J1064" t="inlineStr">
@@ -49406,17 +49396,17 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>1947490</t>
+          <t>525431</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>GdSb</t>
+          <t>ErSb</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="D1065" t="n">
@@ -49434,7 +49424,7 @@
       <c r="H1065" t="inlineStr"/>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>['Gd', 'Sb']</t>
+          <t>['Er', 'Sb']</t>
         </is>
       </c>
       <c r="J1065" t="inlineStr">
@@ -49452,17 +49442,17 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>525431</t>
+          <t>525425</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>ErSb</t>
+          <t>HoSb</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="D1066" t="n">
@@ -49480,7 +49470,7 @@
       <c r="H1066" t="inlineStr"/>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>['Er', 'Sb']</t>
+          <t>['Ho', 'Sb']</t>
         </is>
       </c>
       <c r="J1066" t="inlineStr">
@@ -49498,17 +49488,17 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>525425</t>
+          <t>261028</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>HoSb</t>
+          <t>LuSb</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="D1067" t="n">
@@ -49526,7 +49516,7 @@
       <c r="H1067" t="inlineStr"/>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>['Ho', 'Sb']</t>
+          <t>['Lu', 'Sb']</t>
         </is>
       </c>
       <c r="J1067" t="inlineStr">
@@ -49544,17 +49534,17 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>261028</t>
+          <t>525343</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>LuSb</t>
+          <t>YSb</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="D1068" t="n">
@@ -49572,7 +49562,7 @@
       <c r="H1068" t="inlineStr"/>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>['Lu', 'Sb']</t>
+          <t>['Y', 'Sb']</t>
         </is>
       </c>
       <c r="J1068" t="inlineStr">
@@ -49590,17 +49580,17 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>525343</t>
+          <t>525419</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>YSb</t>
+          <t>DySb</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="D1069" t="n">
@@ -49618,7 +49608,7 @@
       <c r="H1069" t="inlineStr"/>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>['Y', 'Sb']</t>
+          <t>['Dy', 'Sb']</t>
         </is>
       </c>
       <c r="J1069" t="inlineStr">
@@ -49636,17 +49626,17 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>525419</t>
+          <t>251935</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>DySb</t>
+          <t>HoSb</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="D1070" t="n">
@@ -49664,7 +49654,7 @@
       <c r="H1070" t="inlineStr"/>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>['Dy', 'Sb']</t>
+          <t>['Ho', 'Sb']</t>
         </is>
       </c>
       <c r="J1070" t="inlineStr">
@@ -49682,21 +49672,21 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>251935</t>
+          <t>453389</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>HoSb</t>
+          <t>Sn0.5Sb0.5</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Sn</t>
         </is>
       </c>
       <c r="D1071" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E1071" t="inlineStr">
         <is>
@@ -49704,18 +49694,18 @@
         </is>
       </c>
       <c r="F1071" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G1071" t="inlineStr"/>
       <c r="H1071" t="inlineStr"/>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>['Ho', 'Sb']</t>
+          <t>['Sn', 'Sb']</t>
         </is>
       </c>
       <c r="J1071" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[5, 5]</t>
         </is>
       </c>
       <c r="K1071" t="inlineStr"/>
@@ -49728,21 +49718,21 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>453389</t>
+          <t>533469</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Sn0.5Sb0.5</t>
+          <t>CeSb</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
         <is>
-          <t>Sn</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="D1072" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E1072" t="inlineStr">
         <is>
@@ -49750,18 +49740,18 @@
         </is>
       </c>
       <c r="F1072" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G1072" t="inlineStr"/>
       <c r="H1072" t="inlineStr"/>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>['Sn', 'Sb']</t>
+          <t>['Ce', 'Sb']</t>
         </is>
       </c>
       <c r="J1072" t="inlineStr">
         <is>
-          <t>[5, 5]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="K1072" t="inlineStr"/>
@@ -49774,17 +49764,17 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>533469</t>
+          <t>1700922</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>CeSb</t>
+          <t>DySb</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="D1073" t="n">
@@ -49802,7 +49792,7 @@
       <c r="H1073" t="inlineStr"/>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>['Ce', 'Sb']</t>
+          <t>['Dy', 'Sb']</t>
         </is>
       </c>
       <c r="J1073" t="inlineStr">
@@ -49820,17 +49810,17 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>1700922</t>
+          <t>311109</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>DySb</t>
+          <t>PrSb</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Pr</t>
         </is>
       </c>
       <c r="D1074" t="n">
@@ -49848,7 +49838,7 @@
       <c r="H1074" t="inlineStr"/>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>['Dy', 'Sb']</t>
+          <t>['Pr', 'Sb']</t>
         </is>
       </c>
       <c r="J1074" t="inlineStr">
@@ -49866,17 +49856,17 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>311109</t>
+          <t>526918</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>PrSb</t>
+          <t>USb</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
         <is>
-          <t>Pr</t>
+          <t>U</t>
         </is>
       </c>
       <c r="D1075" t="n">
@@ -49894,7 +49884,7 @@
       <c r="H1075" t="inlineStr"/>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>['Pr', 'Sb']</t>
+          <t>['U', 'Sb']</t>
         </is>
       </c>
       <c r="J1075" t="inlineStr">
@@ -49912,17 +49902,17 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>526918</t>
+          <t>381042</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>USb</t>
+          <t>YbSb</t>
         </is>
       </c>
       <c r="C1076" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Yb</t>
         </is>
       </c>
       <c r="D1076" t="n">
@@ -49940,7 +49930,7 @@
       <c r="H1076" t="inlineStr"/>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>['U', 'Sb']</t>
+          <t>['Yb', 'Sb']</t>
         </is>
       </c>
       <c r="J1076" t="inlineStr">
@@ -49958,17 +49948,17 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>381042</t>
+          <t>1700923</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>YbSb</t>
+          <t>HoSb</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
         <is>
-          <t>Yb</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="D1077" t="n">
@@ -49986,7 +49976,7 @@
       <c r="H1077" t="inlineStr"/>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>['Yb', 'Sb']</t>
+          <t>['Ho', 'Sb']</t>
         </is>
       </c>
       <c r="J1077" t="inlineStr">
@@ -50004,17 +49994,17 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>1700923</t>
+          <t>558578</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>HoSb</t>
+          <t>TbSb</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="D1078" t="n">
@@ -50032,7 +50022,7 @@
       <c r="H1078" t="inlineStr"/>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>['Ho', 'Sb']</t>
+          <t>['Tb', 'Sb']</t>
         </is>
       </c>
       <c r="J1078" t="inlineStr">
@@ -50050,17 +50040,17 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>558578</t>
+          <t>525418</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>TbSb</t>
+          <t>HoSb</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="D1079" t="n">
@@ -50078,7 +50068,7 @@
       <c r="H1079" t="inlineStr"/>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>['Tb', 'Sb']</t>
+          <t>['Ho', 'Sb']</t>
         </is>
       </c>
       <c r="J1079" t="inlineStr">
@@ -50096,17 +50086,17 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>525418</t>
+          <t>261015</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>HoSb</t>
+          <t>CeSb</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="D1080" t="n">
@@ -50124,7 +50114,7 @@
       <c r="H1080" t="inlineStr"/>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>['Ho', 'Sb']</t>
+          <t>['Ce', 'Sb']</t>
         </is>
       </c>
       <c r="J1080" t="inlineStr">
@@ -50142,7 +50132,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>261015</t>
+          <t>1731485</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr">
@@ -50188,17 +50178,17 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>1731485</t>
+          <t>525424</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>CeSb</t>
+          <t>GdSb</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="D1082" t="n">
@@ -50216,7 +50206,7 @@
       <c r="H1082" t="inlineStr"/>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>['Ce', 'Sb']</t>
+          <t>['Gd', 'Sb']</t>
         </is>
       </c>
       <c r="J1082" t="inlineStr">
@@ -50234,7 +50224,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>525424</t>
+          <t>525342</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr">
@@ -50280,17 +50270,17 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>525342</t>
+          <t>525430</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>GdSb</t>
+          <t>TmSb</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Tm</t>
         </is>
       </c>
       <c r="D1084" t="n">
@@ -50308,7 +50298,7 @@
       <c r="H1084" t="inlineStr"/>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>['Gd', 'Sb']</t>
+          <t>['Tm', 'Sb']</t>
         </is>
       </c>
       <c r="J1084" t="inlineStr">
@@ -50326,40 +50316,40 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>525430</t>
+          <t>261353</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>TmSb</t>
+          <t>Ru0.5Ni0.5</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>Tm</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="D1085" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E1085" t="inlineStr">
         <is>
-          <t>Sb</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="F1085" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G1085" t="inlineStr"/>
       <c r="H1085" t="inlineStr"/>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>['Tm', 'Sb']</t>
+          <t>['Ru', 'Ni']</t>
         </is>
       </c>
       <c r="J1085" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[5, 5]</t>
         </is>
       </c>
       <c r="K1085" t="inlineStr"/>
@@ -50372,17 +50362,17 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>261353</t>
+          <t>534096</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Ru0.5Ni0.5</t>
+          <t>Gd0.5Dy0.5</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="D1086" t="n">
@@ -50390,7 +50380,7 @@
       </c>
       <c r="E1086" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="F1086" t="n">
@@ -50400,7 +50390,7 @@
       <c r="H1086" t="inlineStr"/>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>['Ru', 'Ni']</t>
+          <t>['Gd', 'Dy']</t>
         </is>
       </c>
       <c r="J1086" t="inlineStr">
@@ -50418,17 +50408,17 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>534096</t>
+          <t>529979</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Gd0.5Dy0.5</t>
+          <t>Fe0.5Ru0.5</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="D1087" t="n">
@@ -50436,7 +50426,7 @@
       </c>
       <c r="E1087" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="F1087" t="n">
@@ -50446,7 +50436,7 @@
       <c r="H1087" t="inlineStr"/>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>['Gd', 'Dy']</t>
+          <t>['Fe', 'Ru']</t>
         </is>
       </c>
       <c r="J1087" t="inlineStr">
@@ -50464,17 +50454,17 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>529979</t>
+          <t>251863</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Fe0.5Ru0.5</t>
+          <t>Dy0.5Ho0.5</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="D1088" t="n">
@@ -50482,7 +50472,7 @@
       </c>
       <c r="E1088" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="F1088" t="n">
@@ -50492,7 +50482,7 @@
       <c r="H1088" t="inlineStr"/>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>['Fe', 'Ru']</t>
+          <t>['Dy', 'Ho']</t>
         </is>
       </c>
       <c r="J1088" t="inlineStr">
@@ -50510,17 +50500,17 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>251863</t>
+          <t>1006737</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Dy0.5Ho0.5</t>
+          <t>Sc0.5Dy0.5</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Sc</t>
         </is>
       </c>
       <c r="D1089" t="n">
@@ -50528,7 +50518,7 @@
       </c>
       <c r="E1089" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="F1089" t="n">
@@ -50538,7 +50528,7 @@
       <c r="H1089" t="inlineStr"/>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>['Dy', 'Ho']</t>
+          <t>['Sc', 'Dy']</t>
         </is>
       </c>
       <c r="J1089" t="inlineStr">
@@ -50556,17 +50546,17 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>1006737</t>
+          <t>533310</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Sc0.5Dy0.5</t>
+          <t>Gd0.5Tb0.5</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
         <is>
-          <t>Sc</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="D1090" t="n">
@@ -50574,7 +50564,7 @@
       </c>
       <c r="E1090" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="F1090" t="n">
@@ -50584,7 +50574,7 @@
       <c r="H1090" t="inlineStr"/>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>['Sc', 'Dy']</t>
+          <t>['Gd', 'Tb']</t>
         </is>
       </c>
       <c r="J1090" t="inlineStr">
@@ -50602,17 +50592,17 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>533310</t>
+          <t>251860</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Gd0.5Tb0.5</t>
+          <t>Y0.5Er0.5</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="D1091" t="n">
@@ -50620,7 +50610,7 @@
       </c>
       <c r="E1091" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="F1091" t="n">
@@ -50630,7 +50620,7 @@
       <c r="H1091" t="inlineStr"/>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>['Gd', 'Tb']</t>
+          <t>['Y', 'Er']</t>
         </is>
       </c>
       <c r="J1091" t="inlineStr">
@@ -50648,12 +50638,12 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>251860</t>
+          <t>452049</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Y0.5Er0.5</t>
+          <t>Y0.5Sc0.5</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
@@ -50666,7 +50656,7 @@
       </c>
       <c r="E1092" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Sc</t>
         </is>
       </c>
       <c r="F1092" t="n">
@@ -50676,7 +50666,7 @@
       <c r="H1092" t="inlineStr"/>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>['Y', 'Er']</t>
+          <t>['Y', 'Sc']</t>
         </is>
       </c>
       <c r="J1092" t="inlineStr">
@@ -50694,17 +50684,17 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>452049</t>
+          <t>1924089</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Y0.5Sc0.5</t>
+          <t>Fe0.5Ru0.5</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="D1093" t="n">
@@ -50712,7 +50702,7 @@
       </c>
       <c r="E1093" t="inlineStr">
         <is>
-          <t>Sc</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="F1093" t="n">
@@ -50722,7 +50712,7 @@
       <c r="H1093" t="inlineStr"/>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>['Y', 'Sc']</t>
+          <t>['Fe', 'Ru']</t>
         </is>
       </c>
       <c r="J1093" t="inlineStr">
@@ -50740,40 +50730,40 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>1924089</t>
+          <t>1244353</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Fe0.5Ru0.5</t>
+          <t>Ru0.85Pt0.15</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="D1094" t="n">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="E1094" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="F1094" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="G1094" t="inlineStr"/>
       <c r="H1094" t="inlineStr"/>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>['Fe', 'Ru']</t>
+          <t>['Ru', 'Pt']</t>
         </is>
       </c>
       <c r="J1094" t="inlineStr">
         <is>
-          <t>[5, 5]</t>
+          <t>[85, 15]</t>
         </is>
       </c>
       <c r="K1094" t="inlineStr"/>
@@ -50786,40 +50776,40 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>1244353</t>
+          <t>1122132</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Ru0.85Pt0.15</t>
+          <t>Os0.65Ir0.35</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="D1095" t="n">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="E1095" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="F1095" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="G1095" t="inlineStr"/>
       <c r="H1095" t="inlineStr"/>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>['Ru', 'Pt']</t>
+          <t>['Os', 'Ir']</t>
         </is>
       </c>
       <c r="J1095" t="inlineStr">
         <is>
-          <t>[85, 15]</t>
+          <t>[65, 35]</t>
         </is>
       </c>
       <c r="K1095" t="inlineStr"/>
@@ -50832,40 +50822,40 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>1122132</t>
+          <t>251861</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Os0.65Ir0.35</t>
+          <t>Tb0.5Ho0.5</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>Os</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="D1096" t="n">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="E1096" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="F1096" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="G1096" t="inlineStr"/>
       <c r="H1096" t="inlineStr"/>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>['Os', 'Ir']</t>
+          <t>['Tb', 'Ho']</t>
         </is>
       </c>
       <c r="J1096" t="inlineStr">
         <is>
-          <t>[65, 35]</t>
+          <t>[5, 5]</t>
         </is>
       </c>
       <c r="K1096" t="inlineStr"/>
@@ -50878,17 +50868,17 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>251861</t>
+          <t>1622246</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Tb0.5Ho0.5</t>
+          <t>Os0.5Rh0.5</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="D1097" t="n">
@@ -50896,7 +50886,7 @@
       </c>
       <c r="E1097" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="F1097" t="n">
@@ -50906,7 +50896,7 @@
       <c r="H1097" t="inlineStr"/>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>['Tb', 'Ho']</t>
+          <t>['Os', 'Rh']</t>
         </is>
       </c>
       <c r="J1097" t="inlineStr">
@@ -50924,7 +50914,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>1622246</t>
+          <t>1622247</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
@@ -50970,40 +50960,40 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>1622247</t>
+          <t>261244</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Os0.5Rh0.5</t>
+          <t>Co0.65Ir0.35</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>Os</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="D1099" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="E1099" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="F1099" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="G1099" t="inlineStr"/>
       <c r="H1099" t="inlineStr"/>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>['Os', 'Rh']</t>
+          <t>['Co', 'Ir']</t>
         </is>
       </c>
       <c r="J1099" t="inlineStr">
         <is>
-          <t>[5, 5]</t>
+          <t>[65, 35]</t>
         </is>
       </c>
       <c r="K1099" t="inlineStr"/>
@@ -51016,40 +51006,40 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>261244</t>
+          <t>450798</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Co0.65Ir0.35</t>
+          <t>La0.5Dy0.5</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>La</t>
         </is>
       </c>
       <c r="D1100" t="n">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="E1100" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="F1100" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="G1100" t="inlineStr"/>
       <c r="H1100" t="inlineStr"/>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>['Co', 'Ir']</t>
+          <t>['La', 'Dy']</t>
         </is>
       </c>
       <c r="J1100" t="inlineStr">
         <is>
-          <t>[65, 35]</t>
+          <t>[5, 5]</t>
         </is>
       </c>
       <c r="K1100" t="inlineStr"/>
@@ -51062,40 +51052,40 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>450798</t>
+          <t>1965502</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>La0.5Dy0.5</t>
+          <t>Ru0.67Ir0.33</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="D1101" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E1101" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="F1101" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G1101" t="inlineStr"/>
       <c r="H1101" t="inlineStr"/>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>['La', 'Dy']</t>
+          <t>['Ru', 'Ir']</t>
         </is>
       </c>
       <c r="J1101" t="inlineStr">
         <is>
-          <t>[5, 5]</t>
+          <t>[67, 33]</t>
         </is>
       </c>
       <c r="K1101" t="inlineStr"/>
@@ -51108,40 +51098,40 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>1965502</t>
+          <t>261337</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Ru0.67Ir0.33</t>
+          <t>Fe0.5Ru0.5</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
         <is>
+          <t>Fe</t>
+        </is>
+      </c>
+      <c r="D1102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1102" t="inlineStr">
+        <is>
           <t>Ru</t>
         </is>
       </c>
-      <c r="D1102" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E1102" t="inlineStr">
-        <is>
-          <t>Ir</t>
-        </is>
-      </c>
       <c r="F1102" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G1102" t="inlineStr"/>
       <c r="H1102" t="inlineStr"/>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>['Ru', 'Ir']</t>
+          <t>['Fe', 'Ru']</t>
         </is>
       </c>
       <c r="J1102" t="inlineStr">
         <is>
-          <t>[67, 33]</t>
+          <t>[5, 5]</t>
         </is>
       </c>
       <c r="K1102" t="inlineStr"/>
@@ -51154,40 +51144,40 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>261337</t>
+          <t>1823803</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Fe0.5Ru0.5</t>
+          <t>Ru0.25Co0.75</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="D1103" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E1103" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="F1103" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G1103" t="inlineStr"/>
       <c r="H1103" t="inlineStr"/>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>['Fe', 'Ru']</t>
+          <t>['Ru', 'Co']</t>
         </is>
       </c>
       <c r="J1103" t="inlineStr">
         <is>
-          <t>[5, 5]</t>
+          <t>[25, 75]</t>
         </is>
       </c>
       <c r="K1103" t="inlineStr"/>
@@ -51200,7 +51190,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>1823803</t>
+          <t>261240</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
@@ -51246,21 +51236,21 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>261240</t>
+          <t>261241</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Ru0.25Co0.75</t>
+          <t>Os0.5Co0.5</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="D1105" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E1105" t="inlineStr">
         <is>
@@ -51268,18 +51258,18 @@
         </is>
       </c>
       <c r="F1105" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G1105" t="inlineStr"/>
       <c r="H1105" t="inlineStr"/>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>['Ru', 'Co']</t>
+          <t>['Os', 'Co']</t>
         </is>
       </c>
       <c r="J1105" t="inlineStr">
         <is>
-          <t>[25, 75]</t>
+          <t>[5, 5]</t>
         </is>
       </c>
       <c r="K1105" t="inlineStr"/>
@@ -51292,40 +51282,40 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>261241</t>
+          <t>1942835</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Os0.5Co0.5</t>
+          <t>Ru0.92Pd0.08</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
         <is>
-          <t>Os</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="D1106" t="n">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="E1106" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="F1106" t="n">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="G1106" t="inlineStr"/>
       <c r="H1106" t="inlineStr"/>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>['Os', 'Co']</t>
+          <t>['Ru', 'Pd']</t>
         </is>
       </c>
       <c r="J1106" t="inlineStr">
         <is>
-          <t>[5, 5]</t>
+          <t>[92, 8]</t>
         </is>
       </c>
       <c r="K1106" t="inlineStr"/>
@@ -51338,40 +51328,40 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>1942835</t>
+          <t>1930135</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Ru0.92Pd0.08</t>
+          <t>Os0.5Ru0.5</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
         <is>
+          <t>Os</t>
+        </is>
+      </c>
+      <c r="D1107" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1107" t="inlineStr">
+        <is>
           <t>Ru</t>
         </is>
       </c>
-      <c r="D1107" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="E1107" t="inlineStr">
-        <is>
-          <t>Pd</t>
-        </is>
-      </c>
       <c r="F1107" t="n">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="G1107" t="inlineStr"/>
       <c r="H1107" t="inlineStr"/>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>['Ru', 'Pd']</t>
+          <t>['Os', 'Ru']</t>
         </is>
       </c>
       <c r="J1107" t="inlineStr">
         <is>
-          <t>[92, 8]</t>
+          <t>[5, 5]</t>
         </is>
       </c>
       <c r="K1107" t="inlineStr"/>
@@ -51384,17 +51374,17 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>1930135</t>
+          <t>260284</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Os0.5Ru0.5</t>
+          <t>Ru0.5Rh0.5</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>Os</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="D1108" t="n">
@@ -51402,7 +51392,7 @@
       </c>
       <c r="E1108" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="F1108" t="n">
@@ -51412,7 +51402,7 @@
       <c r="H1108" t="inlineStr"/>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>['Os', 'Ru']</t>
+          <t>['Ru', 'Rh']</t>
         </is>
       </c>
       <c r="J1108" t="inlineStr">
@@ -51430,17 +51420,17 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>260284</t>
+          <t>250179</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Ru0.5Rh0.5</t>
+          <t>Sc0.5Gd0.5</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Sc</t>
         </is>
       </c>
       <c r="D1109" t="n">
@@ -51448,7 +51438,7 @@
       </c>
       <c r="E1109" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="F1109" t="n">
@@ -51458,7 +51448,7 @@
       <c r="H1109" t="inlineStr"/>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>['Ru', 'Rh']</t>
+          <t>['Sc', 'Gd']</t>
         </is>
       </c>
       <c r="J1109" t="inlineStr">
@@ -51476,17 +51466,17 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>250179</t>
+          <t>534880</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Sc0.5Gd0.5</t>
+          <t>Y0.5Gd0.5</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
         <is>
-          <t>Sc</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="D1110" t="n">
@@ -51504,7 +51494,7 @@
       <c r="H1110" t="inlineStr"/>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>['Sc', 'Gd']</t>
+          <t>['Y', 'Gd']</t>
         </is>
       </c>
       <c r="J1110" t="inlineStr">
@@ -51522,17 +51512,17 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>534880</t>
+          <t>528539</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Y0.5Gd0.5</t>
+          <t>Dy0.5Ho0.5</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="D1111" t="n">
@@ -51540,7 +51530,7 @@
       </c>
       <c r="E1111" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="F1111" t="n">
@@ -51550,7 +51540,7 @@
       <c r="H1111" t="inlineStr"/>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>['Y', 'Gd']</t>
+          <t>['Dy', 'Ho']</t>
         </is>
       </c>
       <c r="J1111" t="inlineStr">
@@ -51568,17 +51558,17 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>528539</t>
+          <t>250545</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Dy0.5Ho0.5</t>
+          <t>Y0.5Pr0.5</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="D1112" t="n">
@@ -51586,7 +51576,7 @@
       </c>
       <c r="E1112" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Pr</t>
         </is>
       </c>
       <c r="F1112" t="n">
@@ -51596,7 +51586,7 @@
       <c r="H1112" t="inlineStr"/>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>['Dy', 'Ho']</t>
+          <t>['Y', 'Pr']</t>
         </is>
       </c>
       <c r="J1112" t="inlineStr">
@@ -51614,17 +51604,17 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>250545</t>
+          <t>250009</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Y0.5Pr0.5</t>
+          <t>Os0.5Ru0.5</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="D1113" t="n">
@@ -51632,7 +51622,7 @@
       </c>
       <c r="E1113" t="inlineStr">
         <is>
-          <t>Pr</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="F1113" t="n">
@@ -51642,7 +51632,7 @@
       <c r="H1113" t="inlineStr"/>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>['Y', 'Pr']</t>
+          <t>['Os', 'Ru']</t>
         </is>
       </c>
       <c r="J1113" t="inlineStr">
@@ -51660,40 +51650,40 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>250009</t>
+          <t>1828477</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Os0.5Ru0.5</t>
+          <t>PdSn</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>Os</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="D1114" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Sn</t>
         </is>
       </c>
       <c r="F1114" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G1114" t="inlineStr"/>
       <c r="H1114" t="inlineStr"/>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>['Os', 'Ru']</t>
+          <t>['Pd', 'Sn']</t>
         </is>
       </c>
       <c r="J1114" t="inlineStr">
         <is>
-          <t>[5, 5]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="K1114" t="inlineStr"/>
@@ -51706,17 +51696,17 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>1828477</t>
+          <t>1605512</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>PdSn</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1115" t="n">
@@ -51724,7 +51714,7 @@
       </c>
       <c r="E1115" t="inlineStr">
         <is>
-          <t>Sn</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1115" t="n">
@@ -51734,7 +51724,7 @@
       <c r="H1115" t="inlineStr"/>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>['Pd', 'Sn']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1115" t="inlineStr">
@@ -51752,17 +51742,17 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>1605512</t>
+          <t>451803</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>IrSi</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="D1116" t="n">
@@ -51780,7 +51770,7 @@
       <c r="H1116" t="inlineStr"/>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Ir', 'Si']</t>
         </is>
       </c>
       <c r="J1116" t="inlineStr">
@@ -51798,17 +51788,17 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>451803</t>
+          <t>261219</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>IrSi</t>
+          <t>PtSi</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="D1117" t="n">
@@ -51826,7 +51816,7 @@
       <c r="H1117" t="inlineStr"/>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>['Ir', 'Si']</t>
+          <t>['Pt', 'Si']</t>
         </is>
       </c>
       <c r="J1117" t="inlineStr">
@@ -51844,17 +51834,17 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>261219</t>
+          <t>532793</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>PtSi</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1118" t="n">
@@ -51872,7 +51862,7 @@
       <c r="H1118" t="inlineStr"/>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>['Pt', 'Si']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1118" t="inlineStr">
@@ -51890,17 +51880,17 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>532793</t>
+          <t>1221080</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>PtSi</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="D1119" t="n">
@@ -51918,7 +51908,7 @@
       <c r="H1119" t="inlineStr"/>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Pt', 'Si']</t>
         </is>
       </c>
       <c r="J1119" t="inlineStr">
@@ -51936,17 +51926,17 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>1221080</t>
+          <t>456003</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>PtSi</t>
+          <t>IrSi</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="D1120" t="n">
@@ -51964,7 +51954,7 @@
       <c r="H1120" t="inlineStr"/>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>['Pt', 'Si']</t>
+          <t>['Ir', 'Si']</t>
         </is>
       </c>
       <c r="J1120" t="inlineStr">
@@ -51982,17 +51972,17 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>456003</t>
+          <t>261218</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>IrSi</t>
+          <t>PdGe</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="D1121" t="n">
@@ -52000,7 +51990,7 @@
       </c>
       <c r="E1121" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Ge</t>
         </is>
       </c>
       <c r="F1121" t="n">
@@ -52010,7 +52000,7 @@
       <c r="H1121" t="inlineStr"/>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>['Ir', 'Si']</t>
+          <t>['Pd', 'Ge']</t>
         </is>
       </c>
       <c r="J1121" t="inlineStr">
@@ -52028,17 +52018,17 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>261218</t>
+          <t>1940450</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>PdGe</t>
+          <t>IrGe</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="D1122" t="n">
@@ -52056,7 +52046,7 @@
       <c r="H1122" t="inlineStr"/>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>['Pd', 'Ge']</t>
+          <t>['Ir', 'Ge']</t>
         </is>
       </c>
       <c r="J1122" t="inlineStr">
@@ -52074,17 +52064,17 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>1940450</t>
+          <t>1717844</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>IrGe</t>
+          <t>PtSi</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="D1123" t="n">
@@ -52092,7 +52082,7 @@
       </c>
       <c r="E1123" t="inlineStr">
         <is>
-          <t>Ge</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1123" t="n">
@@ -52102,7 +52092,7 @@
       <c r="H1123" t="inlineStr"/>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>['Ir', 'Ge']</t>
+          <t>['Pt', 'Si']</t>
         </is>
       </c>
       <c r="J1123" t="inlineStr">
@@ -52120,17 +52110,17 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>1717844</t>
+          <t>261156</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>PtSi</t>
+          <t>PdSn</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="D1124" t="n">
@@ -52138,7 +52128,7 @@
       </c>
       <c r="E1124" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sn</t>
         </is>
       </c>
       <c r="F1124" t="n">
@@ -52148,7 +52138,7 @@
       <c r="H1124" t="inlineStr"/>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>['Pt', 'Si']</t>
+          <t>['Pd', 'Sn']</t>
         </is>
       </c>
       <c r="J1124" t="inlineStr">
@@ -52166,17 +52156,17 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>261156</t>
+          <t>450106</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>PdSn</t>
+          <t>IrGe</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="D1125" t="n">
@@ -52184,7 +52174,7 @@
       </c>
       <c r="E1125" t="inlineStr">
         <is>
-          <t>Sn</t>
+          <t>Ge</t>
         </is>
       </c>
       <c r="F1125" t="n">
@@ -52194,7 +52184,7 @@
       <c r="H1125" t="inlineStr"/>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>['Pd', 'Sn']</t>
+          <t>['Ir', 'Ge']</t>
         </is>
       </c>
       <c r="J1125" t="inlineStr">
@@ -52212,12 +52202,12 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>450106</t>
+          <t>1042772</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>IrGe</t>
+          <t>IrSi</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -52230,7 +52220,7 @@
       </c>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>Ge</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1126" t="n">
@@ -52240,7 +52230,7 @@
       <c r="H1126" t="inlineStr"/>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>['Ir', 'Ge']</t>
+          <t>['Ir', 'Si']</t>
         </is>
       </c>
       <c r="J1126" t="inlineStr">
@@ -52258,17 +52248,17 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>1042772</t>
+          <t>1730791</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>IrSi</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1127" t="n">
@@ -52286,7 +52276,7 @@
       <c r="H1127" t="inlineStr"/>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>['Ir', 'Si']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1127" t="inlineStr">
@@ -52304,12 +52294,12 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>1730791</t>
+          <t>1717845</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>NiGe</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -52322,7 +52312,7 @@
       </c>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Ge</t>
         </is>
       </c>
       <c r="F1128" t="n">
@@ -52332,7 +52322,7 @@
       <c r="H1128" t="inlineStr"/>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Ni', 'Ge']</t>
         </is>
       </c>
       <c r="J1128" t="inlineStr">
@@ -52350,12 +52340,12 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>1717845</t>
+          <t>451152</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>NiGe</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
@@ -52368,7 +52358,7 @@
       </c>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>Ge</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1129" t="n">
@@ -52378,7 +52368,7 @@
       <c r="H1129" t="inlineStr"/>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>['Ni', 'Ge']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1129" t="inlineStr">
@@ -52396,7 +52386,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>451152</t>
+          <t>1605514</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
@@ -52442,7 +52432,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>1605514</t>
+          <t>1605502</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
@@ -52488,17 +52478,17 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>1605502</t>
+          <t>1717847</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>IrGe</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="D1132" t="n">
@@ -52506,7 +52496,7 @@
       </c>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Ge</t>
         </is>
       </c>
       <c r="F1132" t="n">
@@ -52516,7 +52506,7 @@
       <c r="H1132" t="inlineStr"/>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Ir', 'Ge']</t>
         </is>
       </c>
       <c r="J1132" t="inlineStr">
@@ -52534,17 +52524,17 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>1717847</t>
+          <t>1245071</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>IrGe</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1133" t="n">
@@ -52552,7 +52542,7 @@
       </c>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>Ge</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1133" t="n">
@@ -52562,7 +52552,7 @@
       <c r="H1133" t="inlineStr"/>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>['Ir', 'Ge']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1133" t="inlineStr">
@@ -52580,7 +52570,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>1245071</t>
+          <t>1233124</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
@@ -52626,7 +52616,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>1233124</t>
+          <t>1963506</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
@@ -52672,17 +52662,17 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>1963506</t>
+          <t>1717846</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>PdGe</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="D1136" t="n">
@@ -52690,7 +52680,7 @@
       </c>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Ge</t>
         </is>
       </c>
       <c r="F1136" t="n">
@@ -52700,7 +52690,7 @@
       <c r="H1136" t="inlineStr"/>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Pd', 'Ge']</t>
         </is>
       </c>
       <c r="J1136" t="inlineStr">
@@ -52718,17 +52708,17 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>1717846</t>
+          <t>452774</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>PdGe</t>
+          <t>PtGe</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="D1137" t="n">
@@ -52746,7 +52736,7 @@
       <c r="H1137" t="inlineStr"/>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>['Pd', 'Ge']</t>
+          <t>['Pt', 'Ge']</t>
         </is>
       </c>
       <c r="J1137" t="inlineStr">
@@ -52764,17 +52754,17 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>452774</t>
+          <t>1142113</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>PtGe</t>
+          <t>PdGe</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="D1138" t="n">
@@ -52792,7 +52782,7 @@
       <c r="H1138" t="inlineStr"/>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>['Pt', 'Ge']</t>
+          <t>['Pd', 'Ge']</t>
         </is>
       </c>
       <c r="J1138" t="inlineStr">
@@ -52810,17 +52800,17 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>1142113</t>
+          <t>1435226</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>PdGe</t>
+          <t>RhSi</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="D1139" t="n">
@@ -52828,7 +52818,7 @@
       </c>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>Ge</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1139" t="n">
@@ -52838,7 +52828,7 @@
       <c r="H1139" t="inlineStr"/>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>['Pd', 'Ge']</t>
+          <t>['Rh', 'Si']</t>
         </is>
       </c>
       <c r="J1139" t="inlineStr">
@@ -52856,17 +52846,17 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>1435226</t>
+          <t>1943076</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>RhSi</t>
+          <t>PdSn</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="D1140" t="n">
@@ -52874,7 +52864,7 @@
       </c>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sn</t>
         </is>
       </c>
       <c r="F1140" t="n">
@@ -52884,7 +52874,7 @@
       <c r="H1140" t="inlineStr"/>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>['Rh', 'Si']</t>
+          <t>['Pd', 'Sn']</t>
         </is>
       </c>
       <c r="J1140" t="inlineStr">
@@ -52902,17 +52892,17 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>1943076</t>
+          <t>1301054</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>PdSn</t>
+          <t>RhSi</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="D1141" t="n">
@@ -52920,7 +52910,7 @@
       </c>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>Sn</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1141" t="n">
@@ -52930,7 +52920,7 @@
       <c r="H1141" t="inlineStr"/>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>['Pd', 'Sn']</t>
+          <t>['Rh', 'Si']</t>
         </is>
       </c>
       <c r="J1141" t="inlineStr">
@@ -52948,17 +52938,17 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>1301054</t>
+          <t>261732</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>RhSi</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1142" t="n">
@@ -52976,7 +52966,7 @@
       <c r="H1142" t="inlineStr"/>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>['Rh', 'Si']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1142" t="inlineStr">
@@ -52994,17 +52984,17 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>261732</t>
+          <t>452821</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>IrSi</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="D1143" t="n">
@@ -53022,7 +53012,7 @@
       <c r="H1143" t="inlineStr"/>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Ir', 'Si']</t>
         </is>
       </c>
       <c r="J1143" t="inlineStr">
@@ -53040,7 +53030,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>452821</t>
+          <t>526420</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
@@ -53086,17 +53076,17 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>526420</t>
+          <t>530526</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>IrSi</t>
+          <t>RhSi</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="D1145" t="n">
@@ -53114,7 +53104,7 @@
       <c r="H1145" t="inlineStr"/>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>['Ir', 'Si']</t>
+          <t>['Rh', 'Si']</t>
         </is>
       </c>
       <c r="J1145" t="inlineStr">
@@ -53132,17 +53122,17 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>530526</t>
+          <t>1964948</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>RhSi</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1146" t="n">
@@ -53160,7 +53150,7 @@
       <c r="H1146" t="inlineStr"/>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>['Rh', 'Si']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1146" t="inlineStr">
@@ -53178,17 +53168,17 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>1964948</t>
+          <t>1142115</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>PtSi</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="D1147" t="n">
@@ -53206,7 +53196,7 @@
       <c r="H1147" t="inlineStr"/>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Pt', 'Si']</t>
         </is>
       </c>
       <c r="J1147" t="inlineStr">
@@ -53224,17 +53214,17 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>1142115</t>
+          <t>526999</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>PtSi</t>
+          <t>RhSi</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="D1148" t="n">
@@ -53252,7 +53242,7 @@
       <c r="H1148" t="inlineStr"/>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>['Pt', 'Si']</t>
+          <t>['Rh', 'Si']</t>
         </is>
       </c>
       <c r="J1148" t="inlineStr">
@@ -53270,17 +53260,17 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>526999</t>
+          <t>1620921</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>RhSi</t>
+          <t>PdSn</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="D1149" t="n">
@@ -53288,7 +53278,7 @@
       </c>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sn</t>
         </is>
       </c>
       <c r="F1149" t="n">
@@ -53298,7 +53288,7 @@
       <c r="H1149" t="inlineStr"/>
       <c r="I1149" t="inlineStr">
         <is>
-          <t>['Rh', 'Si']</t>
+          <t>['Pd', 'Sn']</t>
         </is>
       </c>
       <c r="J1149" t="inlineStr">
@@ -53316,17 +53306,17 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>1620921</t>
+          <t>1642395</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>PdSn</t>
+          <t>NiGe</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1150" t="n">
@@ -53334,7 +53324,7 @@
       </c>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>Sn</t>
+          <t>Ge</t>
         </is>
       </c>
       <c r="F1150" t="n">
@@ -53344,7 +53334,7 @@
       <c r="H1150" t="inlineStr"/>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>['Pd', 'Sn']</t>
+          <t>['Ni', 'Ge']</t>
         </is>
       </c>
       <c r="J1150" t="inlineStr">
@@ -53362,12 +53352,12 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>1642395</t>
+          <t>1949020</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>NiGe</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -53380,7 +53370,7 @@
       </c>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>Ge</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1151" t="n">
@@ -53390,7 +53380,7 @@
       <c r="H1151" t="inlineStr"/>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>['Ni', 'Ge']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1151" t="inlineStr">
@@ -53408,7 +53398,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>1949020</t>
+          <t>1412320</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
@@ -53454,7 +53444,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>1412320</t>
+          <t>1946851</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
@@ -53500,7 +53490,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>1946851</t>
+          <t>1100707</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
@@ -53546,7 +53536,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>1100707</t>
+          <t>1928971</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
@@ -53592,12 +53582,12 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>1928971</t>
+          <t>1928973</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>NiGe</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
@@ -53610,7 +53600,7 @@
       </c>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Ge</t>
         </is>
       </c>
       <c r="F1156" t="n">
@@ -53620,7 +53610,7 @@
       <c r="H1156" t="inlineStr"/>
       <c r="I1156" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Ni', 'Ge']</t>
         </is>
       </c>
       <c r="J1156" t="inlineStr">
@@ -53638,17 +53628,17 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>1928973</t>
+          <t>1949023</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>NiGe</t>
+          <t>PdGe</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="D1157" t="n">
@@ -53666,7 +53656,7 @@
       <c r="H1157" t="inlineStr"/>
       <c r="I1157" t="inlineStr">
         <is>
-          <t>['Ni', 'Ge']</t>
+          <t>['Pd', 'Ge']</t>
         </is>
       </c>
       <c r="J1157" t="inlineStr">
@@ -53684,17 +53674,17 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>1949023</t>
+          <t>1946852</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>PdGe</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1158" t="n">
@@ -53702,7 +53692,7 @@
       </c>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>Ge</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1158" t="n">
@@ -53712,7 +53702,7 @@
       <c r="H1158" t="inlineStr"/>
       <c r="I1158" t="inlineStr">
         <is>
-          <t>['Pd', 'Ge']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1158" t="inlineStr">
@@ -53730,17 +53720,17 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>1946852</t>
+          <t>1224391</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>RhSi</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="D1159" t="n">
@@ -53758,7 +53748,7 @@
       <c r="H1159" t="inlineStr"/>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Rh', 'Si']</t>
         </is>
       </c>
       <c r="J1159" t="inlineStr">
@@ -53776,17 +53766,17 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>1224391</t>
+          <t>1949022</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>RhSi</t>
+          <t>PtSi</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="D1160" t="n">
@@ -53804,7 +53794,7 @@
       <c r="H1160" t="inlineStr"/>
       <c r="I1160" t="inlineStr">
         <is>
-          <t>['Rh', 'Si']</t>
+          <t>['Pt', 'Si']</t>
         </is>
       </c>
       <c r="J1160" t="inlineStr">
@@ -53822,17 +53812,17 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>1949022</t>
+          <t>1211289</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>PtSi</t>
+          <t>NiGe</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1161" t="n">
@@ -53840,7 +53830,7 @@
       </c>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Ge</t>
         </is>
       </c>
       <c r="F1161" t="n">
@@ -53850,7 +53840,7 @@
       <c r="H1161" t="inlineStr"/>
       <c r="I1161" t="inlineStr">
         <is>
-          <t>['Pt', 'Si']</t>
+          <t>['Ni', 'Ge']</t>
         </is>
       </c>
       <c r="J1161" t="inlineStr">
@@ -53868,7 +53858,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>1211289</t>
+          <t>1928976</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
@@ -53914,12 +53904,12 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>1928976</t>
+          <t>1640547</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>NiGe</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
@@ -53932,7 +53922,7 @@
       </c>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>Ge</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1163" t="n">
@@ -53942,7 +53932,7 @@
       <c r="H1163" t="inlineStr"/>
       <c r="I1163" t="inlineStr">
         <is>
-          <t>['Ni', 'Ge']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1163" t="inlineStr">
@@ -53960,17 +53950,17 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>1640547</t>
+          <t>527642</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>RhSb</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="D1164" t="n">
@@ -53978,7 +53968,7 @@
       </c>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sb</t>
         </is>
       </c>
       <c r="F1164" t="n">
@@ -53988,7 +53978,7 @@
       <c r="H1164" t="inlineStr"/>
       <c r="I1164" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Rh', 'Sb']</t>
         </is>
       </c>
       <c r="J1164" t="inlineStr">
@@ -54006,17 +53996,17 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>527642</t>
+          <t>527643</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>RhSb</t>
+          <t>RuSb</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="D1165" t="n">
@@ -54034,7 +54024,7 @@
       <c r="H1165" t="inlineStr"/>
       <c r="I1165" t="inlineStr">
         <is>
-          <t>['Rh', 'Sb']</t>
+          <t>['Ru', 'Sb']</t>
         </is>
       </c>
       <c r="J1165" t="inlineStr">
@@ -54052,17 +54042,17 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>527643</t>
+          <t>1121652</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>RuSb</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1166" t="n">
@@ -54070,7 +54060,7 @@
       </c>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>Sb</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1166" t="n">
@@ -54080,7 +54070,7 @@
       <c r="H1166" t="inlineStr"/>
       <c r="I1166" t="inlineStr">
         <is>
-          <t>['Ru', 'Sb']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1166" t="inlineStr">
@@ -54098,17 +54088,17 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>1121652</t>
+          <t>250057</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>RhSi</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="D1167" t="n">
@@ -54126,7 +54116,7 @@
       <c r="H1167" t="inlineStr"/>
       <c r="I1167" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Rh', 'Si']</t>
         </is>
       </c>
       <c r="J1167" t="inlineStr">
@@ -54144,17 +54134,17 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>250057</t>
+          <t>1949019</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>RhSi</t>
+          <t>NiGe</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1168" t="n">
@@ -54162,7 +54152,7 @@
       </c>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Ge</t>
         </is>
       </c>
       <c r="F1168" t="n">
@@ -54172,7 +54162,7 @@
       <c r="H1168" t="inlineStr"/>
       <c r="I1168" t="inlineStr">
         <is>
-          <t>['Rh', 'Si']</t>
+          <t>['Ni', 'Ge']</t>
         </is>
       </c>
       <c r="J1168" t="inlineStr">
@@ -54190,17 +54180,17 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>1949019</t>
+          <t>1949024</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>NiGe</t>
+          <t>PtGe</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="D1169" t="n">
@@ -54218,7 +54208,7 @@
       <c r="H1169" t="inlineStr"/>
       <c r="I1169" t="inlineStr">
         <is>
-          <t>['Ni', 'Ge']</t>
+          <t>['Pt', 'Ge']</t>
         </is>
       </c>
       <c r="J1169" t="inlineStr">
@@ -54236,17 +54226,17 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>1949024</t>
+          <t>1121653</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>PtGe</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1170" t="n">
@@ -54254,7 +54244,7 @@
       </c>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>Ge</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1170" t="n">
@@ -54264,7 +54254,7 @@
       <c r="H1170" t="inlineStr"/>
       <c r="I1170" t="inlineStr">
         <is>
-          <t>['Pt', 'Ge']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1170" t="inlineStr">
@@ -54282,7 +54272,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>1121653</t>
+          <t>1928974</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
@@ -54328,17 +54318,17 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>1928974</t>
+          <t>261213</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>RhSb</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="D1172" t="n">
@@ -54346,7 +54336,7 @@
       </c>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sb</t>
         </is>
       </c>
       <c r="F1172" t="n">
@@ -54356,7 +54346,7 @@
       <c r="H1172" t="inlineStr"/>
       <c r="I1172" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Rh', 'Sb']</t>
         </is>
       </c>
       <c r="J1172" t="inlineStr">
@@ -54374,17 +54364,17 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>261213</t>
+          <t>1240312</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>RhSb</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1173" t="n">
@@ -54392,7 +54382,7 @@
       </c>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>Sb</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1173" t="n">
@@ -54402,7 +54392,7 @@
       <c r="H1173" t="inlineStr"/>
       <c r="I1173" t="inlineStr">
         <is>
-          <t>['Rh', 'Sb']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1173" t="inlineStr">
@@ -54420,17 +54410,17 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>1240312</t>
+          <t>453819</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>RhSi</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="D1174" t="n">
@@ -54448,7 +54438,7 @@
       <c r="H1174" t="inlineStr"/>
       <c r="I1174" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Rh', 'Si']</t>
         </is>
       </c>
       <c r="J1174" t="inlineStr">
@@ -54466,7 +54456,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>453819</t>
+          <t>262082</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
@@ -54512,17 +54502,17 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>262082</t>
+          <t>1717848</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>RhSi</t>
+          <t>PtGe</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="D1176" t="n">
@@ -54530,7 +54520,7 @@
       </c>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Ge</t>
         </is>
       </c>
       <c r="F1176" t="n">
@@ -54540,7 +54530,7 @@
       <c r="H1176" t="inlineStr"/>
       <c r="I1176" t="inlineStr">
         <is>
-          <t>['Rh', 'Si']</t>
+          <t>['Pt', 'Ge']</t>
         </is>
       </c>
       <c r="J1176" t="inlineStr">
@@ -54558,17 +54548,17 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>1717848</t>
+          <t>451200</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>PtGe</t>
+          <t>RhGe</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="D1177" t="n">
@@ -54586,7 +54576,7 @@
       <c r="H1177" t="inlineStr"/>
       <c r="I1177" t="inlineStr">
         <is>
-          <t>['Pt', 'Ge']</t>
+          <t>['Rh', 'Ge']</t>
         </is>
       </c>
       <c r="J1177" t="inlineStr">
@@ -54604,17 +54594,17 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>451200</t>
+          <t>1021583</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>RhGe</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1178" t="n">
@@ -54622,7 +54612,7 @@
       </c>
       <c r="E1178" t="inlineStr">
         <is>
-          <t>Ge</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1178" t="n">
@@ -54632,7 +54622,7 @@
       <c r="H1178" t="inlineStr"/>
       <c r="I1178" t="inlineStr">
         <is>
-          <t>['Rh', 'Ge']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1178" t="inlineStr">
@@ -54650,17 +54640,17 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>1021583</t>
+          <t>1717849</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>RhSb</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="D1179" t="n">
@@ -54668,7 +54658,7 @@
       </c>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sb</t>
         </is>
       </c>
       <c r="F1179" t="n">
@@ -54678,7 +54668,7 @@
       <c r="H1179" t="inlineStr"/>
       <c r="I1179" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Rh', 'Sb']</t>
         </is>
       </c>
       <c r="J1179" t="inlineStr">
@@ -54696,12 +54686,12 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>1717849</t>
+          <t>1940449</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>RhSb</t>
+          <t>RhGe</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
@@ -54714,7 +54704,7 @@
       </c>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>Sb</t>
+          <t>Ge</t>
         </is>
       </c>
       <c r="F1180" t="n">
@@ -54724,7 +54714,7 @@
       <c r="H1180" t="inlineStr"/>
       <c r="I1180" t="inlineStr">
         <is>
-          <t>['Rh', 'Sb']</t>
+          <t>['Rh', 'Ge']</t>
         </is>
       </c>
       <c r="J1180" t="inlineStr">
@@ -54742,17 +54732,17 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>1940449</t>
+          <t>261215</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>RhGe</t>
+          <t>IrGe</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="D1181" t="n">
@@ -54770,7 +54760,7 @@
       <c r="H1181" t="inlineStr"/>
       <c r="I1181" t="inlineStr">
         <is>
-          <t>['Rh', 'Ge']</t>
+          <t>['Ir', 'Ge']</t>
         </is>
       </c>
       <c r="J1181" t="inlineStr">
@@ -54788,17 +54778,17 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>261215</t>
+          <t>532833</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>IrGe</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1182" t="n">
@@ -54806,7 +54796,7 @@
       </c>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>Ge</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1182" t="n">
@@ -54816,7 +54806,7 @@
       <c r="H1182" t="inlineStr"/>
       <c r="I1182" t="inlineStr">
         <is>
-          <t>['Ir', 'Ge']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1182" t="inlineStr">
@@ -54834,7 +54824,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>532833</t>
+          <t>1605497</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
@@ -54880,17 +54870,17 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>1605497</t>
+          <t>1042784</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>PdSn</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="D1184" t="n">
@@ -54898,7 +54888,7 @@
       </c>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sn</t>
         </is>
       </c>
       <c r="F1184" t="n">
@@ -54908,7 +54898,7 @@
       <c r="H1184" t="inlineStr"/>
       <c r="I1184" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Pd', 'Sn']</t>
         </is>
       </c>
       <c r="J1184" t="inlineStr">
@@ -54926,17 +54916,17 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>1042784</t>
+          <t>1341355</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>PdSn</t>
+          <t>IrSi</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="D1185" t="n">
@@ -54944,7 +54934,7 @@
       </c>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>Sn</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1185" t="n">
@@ -54954,7 +54944,7 @@
       <c r="H1185" t="inlineStr"/>
       <c r="I1185" t="inlineStr">
         <is>
-          <t>['Pd', 'Sn']</t>
+          <t>['Ir', 'Si']</t>
         </is>
       </c>
       <c r="J1185" t="inlineStr">
@@ -54972,17 +54962,17 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>1341355</t>
+          <t>452877</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>IrSi</t>
+          <t>RhSb</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="D1186" t="n">
@@ -54990,7 +54980,7 @@
       </c>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sb</t>
         </is>
       </c>
       <c r="F1186" t="n">
@@ -55000,7 +54990,7 @@
       <c r="H1186" t="inlineStr"/>
       <c r="I1186" t="inlineStr">
         <is>
-          <t>['Ir', 'Si']</t>
+          <t>['Rh', 'Sb']</t>
         </is>
       </c>
       <c r="J1186" t="inlineStr">
@@ -55018,17 +55008,17 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>452877</t>
+          <t>261214</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>RhSb</t>
+          <t>PtGe</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="D1187" t="n">
@@ -55036,7 +55026,7 @@
       </c>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>Sb</t>
+          <t>Ge</t>
         </is>
       </c>
       <c r="F1187" t="n">
@@ -55046,7 +55036,7 @@
       <c r="H1187" t="inlineStr"/>
       <c r="I1187" t="inlineStr">
         <is>
-          <t>['Rh', 'Sb']</t>
+          <t>['Pt', 'Ge']</t>
         </is>
       </c>
       <c r="J1187" t="inlineStr">
@@ -55064,7 +55054,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>261214</t>
+          <t>451603</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
@@ -55110,17 +55100,17 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>451603</t>
+          <t>1926330</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>PtGe</t>
+          <t>NiSi</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1189" t="n">
@@ -55128,7 +55118,7 @@
       </c>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>Ge</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F1189" t="n">
@@ -55138,7 +55128,7 @@
       <c r="H1189" t="inlineStr"/>
       <c r="I1189" t="inlineStr">
         <is>
-          <t>['Pt', 'Ge']</t>
+          <t>['Ni', 'Si']</t>
         </is>
       </c>
       <c r="J1189" t="inlineStr">
@@ -55156,7 +55146,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>1926330</t>
+          <t>1248560</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
@@ -55202,17 +55192,17 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>1248560</t>
+          <t>451602</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>NiSi</t>
+          <t>PtSi</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="D1191" t="n">
@@ -55230,7 +55220,7 @@
       <c r="H1191" t="inlineStr"/>
       <c r="I1191" t="inlineStr">
         <is>
-          <t>['Ni', 'Si']</t>
+          <t>['Pt', 'Si']</t>
         </is>
       </c>
       <c r="J1191" t="inlineStr">
@@ -55248,17 +55238,17 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>451602</t>
+          <t>261217</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>PtSi</t>
+          <t>NiGe</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1192" t="n">
@@ -55266,7 +55256,7 @@
       </c>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Ge</t>
         </is>
       </c>
       <c r="F1192" t="n">
@@ -55276,7 +55266,7 @@
       <c r="H1192" t="inlineStr"/>
       <c r="I1192" t="inlineStr">
         <is>
-          <t>['Pt', 'Si']</t>
+          <t>['Ni', 'Ge']</t>
         </is>
       </c>
       <c r="J1192" t="inlineStr">
@@ -55294,17 +55284,17 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>261217</t>
+          <t>311799</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>NiGe</t>
+          <t>AgGd</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Ag</t>
         </is>
       </c>
       <c r="D1193" t="n">
@@ -55312,7 +55302,7 @@
       </c>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>Ge</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="F1193" t="n">
@@ -55322,7 +55312,7 @@
       <c r="H1193" t="inlineStr"/>
       <c r="I1193" t="inlineStr">
         <is>
-          <t>['Ni', 'Ge']</t>
+          <t>['Ag', 'Gd']</t>
         </is>
       </c>
       <c r="J1193" t="inlineStr">
@@ -55332,52 +55322,6 @@
       </c>
       <c r="K1193" t="inlineStr"/>
       <c r="L1193" t="inlineStr">
-        <is>
-          <t>Binary</t>
-        </is>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>311799</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr">
-        <is>
-          <t>AgGd</t>
-        </is>
-      </c>
-      <c r="C1194" t="inlineStr">
-        <is>
-          <t>Ag</t>
-        </is>
-      </c>
-      <c r="D1194" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>Gd</t>
-        </is>
-      </c>
-      <c r="F1194" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1194" t="inlineStr"/>
-      <c r="H1194" t="inlineStr"/>
-      <c r="I1194" t="inlineStr">
-        <is>
-          <t>['Ag', 'Gd']</t>
-        </is>
-      </c>
-      <c r="J1194" t="inlineStr">
-        <is>
-          <t>[1, 1]</t>
-        </is>
-      </c>
-      <c r="K1194" t="inlineStr"/>
-      <c r="L1194" t="inlineStr">
         <is>
           <t>Binary</t>
         </is>
